--- a/data/trans_orig/P6707-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>48166</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36291</v>
+        <v>35854</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61595</v>
+        <v>63736</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1790974575239816</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1349439005791657</v>
+        <v>0.1333170411297533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2290309849275314</v>
+        <v>0.2369924003414687</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -764,19 +764,19 @@
         <v>26727</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18111</v>
+        <v>18419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37743</v>
+        <v>38607</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1707251836570113</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1156899984226733</v>
+        <v>0.117658111849715</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2410922913139649</v>
+        <v>0.2466091713438416</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -785,19 +785,19 @@
         <v>74893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59792</v>
+        <v>59040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91919</v>
+        <v>90426</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1760170280478593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1405267475537048</v>
+        <v>0.1387589122917011</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2160308489571124</v>
+        <v>0.2125234920211291</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>19622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11907</v>
+        <v>11870</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30902</v>
+        <v>30888</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07296172206590126</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04427459244901952</v>
+        <v>0.04413764692757997</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1149026577852244</v>
+        <v>0.1148521538656178</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -835,19 +835,19 @@
         <v>12721</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6679</v>
+        <v>6953</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21088</v>
+        <v>22121</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0812561793100841</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04266216070422538</v>
+        <v>0.04441621953809243</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1347019184856174</v>
+        <v>0.1413033583092242</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -856,19 +856,19 @@
         <v>32343</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22037</v>
+        <v>22344</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46524</v>
+        <v>47342</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07601352029770746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05179149242679706</v>
+        <v>0.05251461824697419</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1093426292762237</v>
+        <v>0.1112655748828537</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>49273</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37696</v>
+        <v>37257</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63542</v>
+        <v>61229</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1832125824458046</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.140167337076475</v>
+        <v>0.1385346038105332</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2362698693349027</v>
+        <v>0.2276718616513475</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -906,19 +906,19 @@
         <v>33433</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23289</v>
+        <v>24099</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44603</v>
+        <v>45745</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2135627208046868</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1487629328996338</v>
+        <v>0.1539382817739146</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2849078973226605</v>
+        <v>0.2922055671096562</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -927,19 +927,19 @@
         <v>82706</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>66496</v>
+        <v>66982</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>99754</v>
+        <v>98733</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1943793768305329</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1562814258190995</v>
+        <v>0.1574229699348014</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2344452070632029</v>
+        <v>0.2320468266280236</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>47823</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36820</v>
+        <v>36455</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62847</v>
+        <v>60532</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1778223735143528</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1369079559707686</v>
+        <v>0.1355514923321861</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2336863490674371</v>
+        <v>0.2250769375264979</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -977,19 +977,19 @@
         <v>29046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19974</v>
+        <v>20086</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40721</v>
+        <v>40191</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1855393808062575</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1275861166963598</v>
+        <v>0.1283002253817236</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2601117579315428</v>
+        <v>0.2567257174858966</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -998,19 +998,19 @@
         <v>76869</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62340</v>
+        <v>61623</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92436</v>
+        <v>94229</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1806617092918429</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1465137469678527</v>
+        <v>0.1448298266818685</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2172469830617959</v>
+        <v>0.221461549972748</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>104053</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>89597</v>
+        <v>88985</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>120325</v>
+        <v>120713</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3869058644499597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3331540678075946</v>
+        <v>0.3308783588132449</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4474091971822012</v>
+        <v>0.4488511592966222</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>50</v>
@@ -1048,19 +1048,19 @@
         <v>54623</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42978</v>
+        <v>43308</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>68727</v>
+        <v>68345</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3489165354219604</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2745330518111798</v>
+        <v>0.2766371700744089</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.439009928703429</v>
+        <v>0.4365694004633495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>152</v>
@@ -1069,19 +1069,19 @@
         <v>158677</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>138286</v>
+        <v>137904</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>179802</v>
+        <v>179916</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3729283655320575</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3250045993522098</v>
+        <v>0.3241084284622953</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4225788176171633</v>
+        <v>0.4228461473864614</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>62691</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49196</v>
+        <v>49476</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81069</v>
+        <v>81455</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1542585508663772</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1210531351145907</v>
+        <v>0.1217411576693648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1994803944327705</v>
+        <v>0.2004291332559264</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1194,19 +1194,19 @@
         <v>40558</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28482</v>
+        <v>29365</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52555</v>
+        <v>54708</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1523434097694731</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1069846213354133</v>
+        <v>0.110300310185889</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1974089655192028</v>
+        <v>0.2054942064059548</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -1215,19 +1215,19 @@
         <v>103248</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83982</v>
+        <v>82205</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124020</v>
+        <v>122495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1535005387104296</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1248576914973675</v>
+        <v>0.1222149896533778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.184382155845334</v>
+        <v>0.1821141820315008</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>27019</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18510</v>
+        <v>18269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39345</v>
+        <v>38469</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0664847316286102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0455468590522786</v>
+        <v>0.04495238770984417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09681267174348315</v>
+        <v>0.09465889347420806</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -1265,19 +1265,19 @@
         <v>25370</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16819</v>
+        <v>16875</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36361</v>
+        <v>37062</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09529361073422225</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0631745843374472</v>
+        <v>0.06338754285850692</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1365787799338398</v>
+        <v>0.1392113174860323</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -1286,19 +1286,19 @@
         <v>52389</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39365</v>
+        <v>38726</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68212</v>
+        <v>67568</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07788727559603995</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05852486640799253</v>
+        <v>0.05757385270029045</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1014114201926418</v>
+        <v>0.1004540577494816</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>92714</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>76428</v>
+        <v>75034</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>111433</v>
+        <v>110642</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2281354946393343</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1880594605603561</v>
+        <v>0.1846311164753044</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2741949854014707</v>
+        <v>0.2722472821954534</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -1336,19 +1336,19 @@
         <v>56176</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44151</v>
+        <v>42260</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>69844</v>
+        <v>70104</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2110081726573513</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1658414488273719</v>
+        <v>0.1587382579286966</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2623504862687233</v>
+        <v>0.2633266052923935</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>138</v>
@@ -1357,19 +1357,19 @@
         <v>148890</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>127632</v>
+        <v>126646</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>170658</v>
+        <v>170499</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2213565067714639</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1897523027344802</v>
+        <v>0.1882857764263203</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.253719467792707</v>
+        <v>0.2534826447898505</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>70847</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55421</v>
+        <v>54377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86623</v>
+        <v>89525</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1743288054075365</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1363711054947585</v>
+        <v>0.1338003217607861</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2131456618954929</v>
+        <v>0.22028700847498</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1407,19 +1407,19 @@
         <v>53613</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41828</v>
+        <v>40556</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69531</v>
+        <v>67635</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2013835278142503</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1571146997459973</v>
+        <v>0.1523363696432799</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2611725397690797</v>
+        <v>0.2540532851572607</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>113</v>
@@ -1428,19 +1428,19 @@
         <v>124461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>103485</v>
+        <v>105059</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>144746</v>
+        <v>147335</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1850370547857313</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1538525446838431</v>
+        <v>0.1561932725078855</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2151951486283</v>
+        <v>0.2190448686668379</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>153129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134088</v>
+        <v>132950</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172419</v>
+        <v>172410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3767924174581418</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3299400978981659</v>
+        <v>0.3271390389904001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4242588575874288</v>
+        <v>0.4242352412709829</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -1478,19 +1478,19 @@
         <v>90509</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>75680</v>
+        <v>73783</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>106119</v>
+        <v>107107</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3399712790247031</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2842694136919366</v>
+        <v>0.2771459784201751</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3986072893897152</v>
+        <v>0.4023171233292281</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>224</v>
@@ -1499,19 +1499,19 @@
         <v>243637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>216573</v>
+        <v>218571</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>270614</v>
+        <v>269087</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3622186241363352</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3219822293398871</v>
+        <v>0.3249523906823874</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4023255865652534</v>
+        <v>0.4000550757462177</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>51844</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40663</v>
+        <v>37242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67752</v>
+        <v>66696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1622819445430169</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1272848450495162</v>
+        <v>0.116577227677902</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2120778318034993</v>
+        <v>0.2087747365457256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -1624,19 +1624,19 @@
         <v>45034</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33753</v>
+        <v>33986</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59381</v>
+        <v>57456</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2101035873447268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1574724891607808</v>
+        <v>0.1585608741784795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2770398612787918</v>
+        <v>0.2680597608105924</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -1645,19 +1645,19 @@
         <v>96878</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79363</v>
+        <v>79274</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>116674</v>
+        <v>119106</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.181483924151138</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1486734686718999</v>
+        <v>0.1485072916313676</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2185684436746972</v>
+        <v>0.2231250933109997</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>33705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23259</v>
+        <v>23273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47866</v>
+        <v>47465</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1055036637973858</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07280528236209749</v>
+        <v>0.07285018308816156</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1498304738494707</v>
+        <v>0.1485771956692733</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1695,19 +1695,19 @@
         <v>15898</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9085</v>
+        <v>9016</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25509</v>
+        <v>25424</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07417015274489451</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04238769960794638</v>
+        <v>0.04206255253376673</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1190123405231013</v>
+        <v>0.1186137094390609</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -1716,19 +1716,19 @@
         <v>49603</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37536</v>
+        <v>37129</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65020</v>
+        <v>64963</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0929222173009626</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07031815820702741</v>
+        <v>0.06955579145060756</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1218042951915673</v>
+        <v>0.1216982290458249</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>64303</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50293</v>
+        <v>50863</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80682</v>
+        <v>83835</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2012819567501961</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1574271825689611</v>
+        <v>0.1592128483801638</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2525528822134044</v>
+        <v>0.262422894344836</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -1766,19 +1766,19 @@
         <v>33108</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23463</v>
+        <v>23426</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45191</v>
+        <v>45899</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1544624442148919</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1094647029732623</v>
+        <v>0.109292535112363</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2108342004754328</v>
+        <v>0.2141384872787319</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>89</v>
@@ -1787,19 +1787,19 @@
         <v>97411</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>80547</v>
+        <v>79236</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>117413</v>
+        <v>116992</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1824823657638962</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1508904602196589</v>
+        <v>0.1484358582534748</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2199539046464377</v>
+        <v>0.2191646165142188</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>66201</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51325</v>
+        <v>50812</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83439</v>
+        <v>85038</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2072232163015243</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1606587892532911</v>
+        <v>0.1590519697196691</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.261182104691942</v>
+        <v>0.2661888338580471</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -1837,19 +1837,19 @@
         <v>42779</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30806</v>
+        <v>31331</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55836</v>
+        <v>57110</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1995828525802368</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1437213828216493</v>
+        <v>0.1461714449458875</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2605010079643028</v>
+        <v>0.2664412648878819</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -1858,19 +1858,19 @@
         <v>108980</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>89537</v>
+        <v>90714</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>131520</v>
+        <v>130432</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.204155356232745</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1677329995686553</v>
+        <v>0.1699378521161735</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2463811757271868</v>
+        <v>0.2443434209051943</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>103414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85429</v>
+        <v>86426</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121872</v>
+        <v>122989</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3237092186078768</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.267413401277235</v>
+        <v>0.2705331283901034</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.381485500548343</v>
+        <v>0.3849821678124509</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -1908,19 +1908,19 @@
         <v>77523</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>64184</v>
+        <v>62542</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>92853</v>
+        <v>92491</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.36168096311525</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2994489512505223</v>
+        <v>0.2917845920598177</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4332024791758638</v>
+        <v>0.4315129294658139</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>163</v>
@@ -1929,19 +1929,19 @@
         <v>180937</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>154856</v>
+        <v>157770</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>203558</v>
+        <v>204278</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3389561365512582</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2900968207141174</v>
+        <v>0.2955551970751186</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3813321730060924</v>
+        <v>0.3826812797321612</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>53045</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40449</v>
+        <v>40929</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67869</v>
+        <v>67651</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1281777251693256</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09773911349151376</v>
+        <v>0.09889950401141176</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.163996777326036</v>
+        <v>0.1634697774377621</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -2054,19 +2054,19 @@
         <v>68529</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53595</v>
+        <v>55182</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>83949</v>
+        <v>84493</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2317031468310699</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1812085243271518</v>
+        <v>0.1865743142205009</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2838391898063384</v>
+        <v>0.2856773362478319</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>115</v>
@@ -2075,19 +2075,19 @@
         <v>121575</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>101856</v>
+        <v>101088</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>142703</v>
+        <v>143368</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.171327050046441</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1435394043122206</v>
+        <v>0.1424562333940156</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2011025005750425</v>
+        <v>0.2020395743364351</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>38417</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>27868</v>
+        <v>27441</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52129</v>
+        <v>53259</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09282937680948149</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06734036417901666</v>
+        <v>0.06630897082123793</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1259629928317106</v>
+        <v>0.1286940426549941</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -2125,19 +2125,19 @@
         <v>33959</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24083</v>
+        <v>24103</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>46098</v>
+        <v>46336</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1148174841320935</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08142585399627147</v>
+        <v>0.08149450286893685</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1558620309503862</v>
+        <v>0.1566650968944473</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>71</v>
@@ -2146,19 +2146,19 @@
         <v>72375</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>58358</v>
+        <v>58728</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>89486</v>
+        <v>88582</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1019940048889136</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08224013249378533</v>
+        <v>0.08276128463898373</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1261074292954827</v>
+        <v>0.124832612662168</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>109478</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>91677</v>
+        <v>90202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>128285</v>
+        <v>126893</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2645408602742739</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2215263328600304</v>
+        <v>0.2179613513664955</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3099865692411342</v>
+        <v>0.3066208195989961</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>69</v>
@@ -2196,19 +2196,19 @@
         <v>75182</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>60835</v>
+        <v>60994</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>92512</v>
+        <v>91795</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2541959194666135</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2056874028486406</v>
+        <v>0.2062271021895988</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3127919727312559</v>
+        <v>0.3103671307782236</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>176</v>
@@ -2217,19 +2217,19 @@
         <v>184660</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>161189</v>
+        <v>161169</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>211350</v>
+        <v>207523</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2602290960275873</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2271530566627237</v>
+        <v>0.2271251921505684</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2978422191511985</v>
+        <v>0.2924482186707364</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>113096</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>93895</v>
+        <v>94640</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>130266</v>
+        <v>132154</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2732830318944667</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2268850881830397</v>
+        <v>0.228685537318513</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3147711043548017</v>
+        <v>0.3193355284004802</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -2267,19 +2267,19 @@
         <v>57154</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44499</v>
+        <v>43660</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71499</v>
+        <v>71212</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1932428755396406</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1504563675541687</v>
+        <v>0.1476181755681014</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.241745143519875</v>
+        <v>0.2407721773523669</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>170</v>
@@ -2288,19 +2288,19 @@
         <v>170250</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>147417</v>
+        <v>147507</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>194521</v>
+        <v>193361</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2399223495197168</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2077453156528087</v>
+        <v>0.207872316906288</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2741254356952055</v>
+        <v>0.2724914807742627</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>99806</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>82316</v>
+        <v>83687</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118260</v>
+        <v>123096</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2411690058524523</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1989058331312837</v>
+        <v>0.2022197756685647</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2857613203532977</v>
+        <v>0.2974461309430911</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -2338,19 +2338,19 @@
         <v>60939</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48173</v>
+        <v>47302</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>75634</v>
+        <v>76175</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2060405740305825</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1628764801922037</v>
+        <v>0.1599326797548647</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2557253365370575</v>
+        <v>0.2575553653638792</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>149</v>
@@ -2359,19 +2359,19 @@
         <v>160745</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>133417</v>
+        <v>140026</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>182598</v>
+        <v>185968</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2265274995173414</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1880158870822931</v>
+        <v>0.1973294545848663</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2573238358028838</v>
+        <v>0.2620728195113036</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>215746</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>188745</v>
+        <v>187336</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>247306</v>
+        <v>249949</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.15315818042492</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1339902384819018</v>
+        <v>0.1329898121110396</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1755629212916059</v>
+        <v>0.1774390294407024</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>168</v>
@@ -2484,19 +2484,19 @@
         <v>180848</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>157616</v>
+        <v>156234</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>205588</v>
+        <v>207452</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1938597274390222</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1689562982404497</v>
+        <v>0.1674746139904257</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2203804227857263</v>
+        <v>0.2223781125896225</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>362</v>
@@ -2505,19 +2505,19 @@
         <v>396594</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>360544</v>
+        <v>362563</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>437090</v>
+        <v>434239</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1693739559693343</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1539782847423258</v>
+        <v>0.154840501394371</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1866690047602472</v>
+        <v>0.185451138872802</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>118763</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97256</v>
+        <v>98639</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>140788</v>
+        <v>142669</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08431011434494458</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06904241070443373</v>
+        <v>0.07002385543446756</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09994550130185921</v>
+        <v>0.1012812470785872</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>85</v>
@@ -2555,19 +2555,19 @@
         <v>87947</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>71438</v>
+        <v>71349</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>106208</v>
+        <v>108558</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09427443388356095</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07657774764925117</v>
+        <v>0.07648252773478131</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1138495585103951</v>
+        <v>0.1163682602077485</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>195</v>
@@ -2576,19 +2576,19 @@
         <v>206710</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>180329</v>
+        <v>176899</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>234805</v>
+        <v>234700</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08827996760470007</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07701343793187457</v>
+        <v>0.07554872545549392</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1002785203245691</v>
+        <v>0.1002338307637813</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>315768</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>285596</v>
+        <v>284779</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>351180</v>
+        <v>349400</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2241641847812721</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2027450836705187</v>
+        <v>0.202165057603042</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2493035496994448</v>
+        <v>0.2480398524791573</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>182</v>
@@ -2626,19 +2626,19 @@
         <v>197898</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>172827</v>
+        <v>174873</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>225300</v>
+        <v>227227</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2121370902987804</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1852622879471943</v>
+        <v>0.1874549136950452</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.241509635264945</v>
+        <v>0.2435763110666559</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>485</v>
@@ -2647,19 +2647,19 @@
         <v>513666</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>472649</v>
+        <v>468880</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>554008</v>
+        <v>556897</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2193725078331704</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2018552462866929</v>
+        <v>0.2002453463588778</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2366013752712651</v>
+        <v>0.2378348711488343</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>297967</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>262625</v>
+        <v>266291</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>327433</v>
+        <v>331059</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2115273758258906</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1864382156088052</v>
+        <v>0.1890401075849519</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2324449499425462</v>
+        <v>0.235019089072518</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>169</v>
@@ -2697,19 +2697,19 @@
         <v>182593</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>156858</v>
+        <v>158911</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>206806</v>
+        <v>208608</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1957299883723649</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1681439733403884</v>
+        <v>0.1703446569508818</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.221685953755368</v>
+        <v>0.2236174077864126</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>453</v>
@@ -2718,19 +2718,19 @@
         <v>480560</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>439498</v>
+        <v>440792</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>519150</v>
+        <v>520097</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.205233588293791</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1876972768613834</v>
+        <v>0.1882498977708522</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2217144458438945</v>
+        <v>0.2221186902763645</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>460402</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>425303</v>
+        <v>424218</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>500275</v>
+        <v>498594</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3268401446229727</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3019231388439064</v>
+        <v>0.3011532015626841</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3551462966005015</v>
+        <v>0.353952688459733</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>257</v>
@@ -2768,19 +2768,19 @@
         <v>283594</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>255005</v>
+        <v>257672</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>314408</v>
+        <v>312502</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3039987600062716</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2733524739519005</v>
+        <v>0.2762117397747411</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3370290750920685</v>
+        <v>0.3349863885743609</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>688</v>
@@ -2789,19 +2789,19 @@
         <v>743996</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>701854</v>
+        <v>697708</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>790111</v>
+        <v>792921</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3177399802990041</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.299742232929421</v>
+        <v>0.2979714175041458</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3374341879493486</v>
+        <v>0.3386341554918751</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>42763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31961</v>
+        <v>30974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56949</v>
+        <v>55456</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1772044310529211</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1324430980678621</v>
+        <v>0.1283522096534709</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2359870384473481</v>
+        <v>0.2297999194019887</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -3154,19 +3154,19 @@
         <v>38444</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28361</v>
+        <v>28469</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48752</v>
+        <v>49150</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2340851173527378</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1726902374256943</v>
+        <v>0.1733447733483776</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.296849679413876</v>
+        <v>0.2992710984852238</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -3175,19 +3175,19 @@
         <v>81207</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65807</v>
+        <v>65008</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99242</v>
+        <v>96665</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2002387747498222</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1622653139927478</v>
+        <v>0.160293528796933</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2447068234677921</v>
+        <v>0.2383525102937027</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>37144</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26368</v>
+        <v>27165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50441</v>
+        <v>49162</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1539205857650855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1092652051845832</v>
+        <v>0.1125698543235651</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2090187349970811</v>
+        <v>0.2037205899065752</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -3225,19 +3225,19 @@
         <v>22177</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14782</v>
+        <v>13869</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32858</v>
+        <v>30894</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1350373524916227</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09000847216486063</v>
+        <v>0.08444917994225636</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2000712539062296</v>
+        <v>0.1881127456262739</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -3246,19 +3246,19 @@
         <v>59322</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45107</v>
+        <v>45964</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73524</v>
+        <v>74866</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1462736512144539</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1112229218397618</v>
+        <v>0.113337079133341</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1812938179145916</v>
+        <v>0.1846015513150786</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>54766</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42323</v>
+        <v>42251</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68690</v>
+        <v>68839</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2269434786698104</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1753792734277752</v>
+        <v>0.1750824515514864</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2846396331454563</v>
+        <v>0.2852583090895179</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -3296,19 +3296,19 @@
         <v>41830</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31070</v>
+        <v>31647</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53862</v>
+        <v>53810</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2547035237812964</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1891821601205129</v>
+        <v>0.1926976577067686</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3279657185270499</v>
+        <v>0.3276461037464424</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -3317,19 +3317,19 @@
         <v>96597</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>80546</v>
+        <v>79679</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>117037</v>
+        <v>113742</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2381851577305905</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.198607209772502</v>
+        <v>0.1964690702356352</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2885849955007096</v>
+        <v>0.2804614825570407</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>53005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40692</v>
+        <v>40504</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67836</v>
+        <v>66943</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2196463359498521</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1686234734778304</v>
+        <v>0.1678436128376195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2811037808076975</v>
+        <v>0.2774005362331164</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -3367,19 +3367,19 @@
         <v>32541</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23750</v>
+        <v>24387</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43462</v>
+        <v>44585</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1981382596740652</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.144610549155405</v>
+        <v>0.1484925600011292</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2646363298476829</v>
+        <v>0.2714751302288264</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -3388,19 +3388,19 @@
         <v>85546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68511</v>
+        <v>69241</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102282</v>
+        <v>102084</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2109364477008906</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1689316437983898</v>
+        <v>0.1707334074235312</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2522041817853115</v>
+        <v>0.2517162642165177</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>53642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>41256</v>
+        <v>40927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69416</v>
+        <v>69207</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2222851685623309</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1709607769962959</v>
+        <v>0.1695977107728986</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2876487430817324</v>
+        <v>0.286783503595688</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -3438,19 +3438,19 @@
         <v>29239</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20910</v>
+        <v>20139</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40421</v>
+        <v>39237</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.178035746700278</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1273183182348177</v>
+        <v>0.1226231748217134</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2461221661415032</v>
+        <v>0.2389133155926932</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>80</v>
@@ -3459,19 +3459,19 @@
         <v>82881</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>67456</v>
+        <v>66149</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>100304</v>
+        <v>99804</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2043659686042428</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1663301991584071</v>
+        <v>0.1631077929287743</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2473266358985911</v>
+        <v>0.2460947184356155</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>68531</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54356</v>
+        <v>54728</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85401</v>
+        <v>85598</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1658359122128217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1315337879252864</v>
+        <v>0.1324355018738867</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2066597326404645</v>
+        <v>0.2071368781175107</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3584,19 +3584,19 @@
         <v>52330</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40051</v>
+        <v>41037</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66548</v>
+        <v>65889</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1918584798047364</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1468407412879309</v>
+        <v>0.150457516025333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2439882545589511</v>
+        <v>0.2415714272736889</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>113</v>
@@ -3605,19 +3605,19 @@
         <v>120861</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>102330</v>
+        <v>102061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>142444</v>
+        <v>141651</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1761824366648549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1491697169701607</v>
+        <v>0.1487771810066377</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2076452719352191</v>
+        <v>0.2064888620934844</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>69254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54672</v>
+        <v>54739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>86302</v>
+        <v>84949</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1675851691972874</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1322985873608253</v>
+        <v>0.1324598536365649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2088397790658294</v>
+        <v>0.2055652970218153</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -3655,19 +3655,19 @@
         <v>38600</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27965</v>
+        <v>27746</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50283</v>
+        <v>52358</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1415210697805901</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1025282120182334</v>
+        <v>0.1017262173091883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1843564580724487</v>
+        <v>0.1919624742957323</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>101</v>
@@ -3676,19 +3676,19 @@
         <v>107854</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>88400</v>
+        <v>89436</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>129318</v>
+        <v>129952</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1572221317690026</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1288629543725981</v>
+        <v>0.130374226845328</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1885108705447252</v>
+        <v>0.1894352270616332</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>110333</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>92016</v>
+        <v>93160</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>131509</v>
+        <v>131029</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2669918709075247</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2226654612801382</v>
+        <v>0.2254351258249059</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3182337514350259</v>
+        <v>0.3170716924463207</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>75</v>
@@ -3726,19 +3726,19 @@
         <v>75435</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>60385</v>
+        <v>61786</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>89756</v>
+        <v>89871</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.276569196647381</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2213911158843493</v>
+        <v>0.2265304065902383</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3290777345923612</v>
+        <v>0.3294989025526517</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>173</v>
@@ -3747,19 +3747,19 @@
         <v>185768</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>164284</v>
+        <v>164306</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>211052</v>
+        <v>209475</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2707997978003075</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2394821643461344</v>
+        <v>0.2395144923956523</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3076575262639195</v>
+        <v>0.3053579369287688</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>77668</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62380</v>
+        <v>62652</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94685</v>
+        <v>94083</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1879462144682529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1509517898380303</v>
+        <v>0.1516096404085222</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.229124374602641</v>
+        <v>0.2276675597251913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -3797,19 +3797,19 @@
         <v>58149</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44643</v>
+        <v>45568</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71152</v>
+        <v>72627</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2131942000394629</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1636780948598447</v>
+        <v>0.1670676528897601</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2608663692088052</v>
+        <v>0.2662761711912542</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -3818,19 +3818,19 @@
         <v>135817</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>114662</v>
+        <v>114929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>157719</v>
+        <v>158945</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1979847665501878</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1671467093543256</v>
+        <v>0.1675362746070921</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2299124438010829</v>
+        <v>0.2316999123068442</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>87460</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70132</v>
+        <v>71126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105217</v>
+        <v>107316</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2116408332141133</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1697112398174954</v>
+        <v>0.1721160059828688</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2546100275252666</v>
+        <v>0.2596897297737182</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -3868,19 +3868,19 @@
         <v>48238</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36435</v>
+        <v>36772</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62489</v>
+        <v>62012</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1768570537278297</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1335835872628</v>
+        <v>0.1348183806997934</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2291045906071811</v>
+        <v>0.2273558711637216</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>122</v>
@@ -3889,19 +3889,19 @@
         <v>135698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>114064</v>
+        <v>115867</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>157818</v>
+        <v>159247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1978108672156472</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1662743219650033</v>
+        <v>0.1689034965078703</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2300566076667707</v>
+        <v>0.2321401659775817</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>75595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59702</v>
+        <v>60060</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92294</v>
+        <v>92877</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2083824282188491</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1645735828308724</v>
+        <v>0.1655592054496866</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2544144569182649</v>
+        <v>0.2560222731116163</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -4014,19 +4014,19 @@
         <v>37584</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26190</v>
+        <v>28313</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49114</v>
+        <v>50809</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.139444598473812</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09717241672519029</v>
+        <v>0.1050490052761001</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1822242455537456</v>
+        <v>0.1885121574563293</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -4035,19 +4035,19 @@
         <v>113179</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>94512</v>
+        <v>93753</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>135023</v>
+        <v>135000</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1789967117801008</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1494741279908768</v>
+        <v>0.1482750682134947</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2135443441128859</v>
+        <v>0.2135085546825228</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>57201</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42093</v>
+        <v>42588</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72160</v>
+        <v>72235</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1576776792221408</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1160318393315874</v>
+        <v>0.1173965356301142</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1989141716808578</v>
+        <v>0.1991209862240966</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -4085,19 +4085,19 @@
         <v>45968</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33614</v>
+        <v>34547</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59675</v>
+        <v>59448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1705522139321592</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1247156883483034</v>
+        <v>0.1281793213686614</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.221409174985936</v>
+        <v>0.2205657461497367</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>96</v>
@@ -4106,19 +4106,19 @@
         <v>103169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86569</v>
+        <v>85319</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123790</v>
+        <v>124869</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1631656301435529</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1369127602772661</v>
+        <v>0.1349350226166276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1957795449109138</v>
+        <v>0.1974849871070224</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>115026</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>96872</v>
+        <v>97373</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>134287</v>
+        <v>134817</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3170756888572098</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2670332160354495</v>
+        <v>0.2684165426607517</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3701720927965979</v>
+        <v>0.3716324690516432</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -4156,19 +4156,19 @@
         <v>77399</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63618</v>
+        <v>63551</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>91466</v>
+        <v>91901</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2871701362137125</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2360397046175876</v>
+        <v>0.2357913845233897</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3393603162138614</v>
+        <v>0.3409751637803992</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>179</v>
@@ -4177,19 +4177,19 @@
         <v>192425</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>169601</v>
+        <v>170944</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>218372</v>
+        <v>216188</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3043280277663972</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.26823186198587</v>
+        <v>0.2703555957053612</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3453640412243087</v>
+        <v>0.3419107692625877</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>58324</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46168</v>
+        <v>44563</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72931</v>
+        <v>72357</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1607732044821639</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1272646017947408</v>
+        <v>0.122840523318256</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2010401805873987</v>
+        <v>0.1994557315162624</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -4227,19 +4227,19 @@
         <v>62241</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48953</v>
+        <v>48568</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77209</v>
+        <v>76777</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2309275844364877</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1816267178475571</v>
+        <v>0.1801982977852474</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2864641629535619</v>
+        <v>0.2848597558999724</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>113</v>
@@ -4248,19 +4248,19 @@
         <v>120564</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>101217</v>
+        <v>100983</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>142937</v>
+        <v>141985</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.190677492503682</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1600794205161423</v>
+        <v>0.1597091264748478</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2260609478929693</v>
+        <v>0.224555541414498</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>56625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44476</v>
+        <v>44373</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>72908</v>
+        <v>73055</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1560909992196364</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1226001713827589</v>
+        <v>0.1223163655865673</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2009758326906665</v>
+        <v>0.2013822923568129</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -4298,19 +4298,19 @@
         <v>46333</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35275</v>
+        <v>35353</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58989</v>
+        <v>60574</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1719054669438285</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.130880364187735</v>
+        <v>0.1311677266609493</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2188645865006888</v>
+        <v>0.2247427639223956</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -4319,19 +4319,19 @@
         <v>102958</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>83968</v>
+        <v>85928</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>121035</v>
+        <v>122900</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1628321378062671</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.132799002273501</v>
+        <v>0.1358982410423761</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1914213172662321</v>
+        <v>0.1943708698011461</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>73879</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60677</v>
+        <v>60107</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>90206</v>
+        <v>90714</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1851599896807077</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1520719490245246</v>
+        <v>0.1506442625233227</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2260790816177467</v>
+        <v>0.2273518666387658</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -4444,19 +4444,19 @@
         <v>84550</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69783</v>
+        <v>67622</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>101838</v>
+        <v>102606</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2597762506308676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2144050823140236</v>
+        <v>0.2077641873366235</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3128924777655538</v>
+        <v>0.3152507641105167</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>149</v>
@@ -4465,19 +4465,19 @@
         <v>158429</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>135877</v>
+        <v>136498</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>183316</v>
+        <v>180567</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2186817423047626</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1875524154619524</v>
+        <v>0.188409561458008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2530334737137505</v>
+        <v>0.2492385061110576</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>56751</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>44265</v>
+        <v>44849</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>72324</v>
+        <v>71168</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1422331071719722</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.110938527478401</v>
+        <v>0.1124023182755571</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1812639249520351</v>
+        <v>0.1783658871041899</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>35</v>
@@ -4515,19 +4515,19 @@
         <v>36813</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>25902</v>
+        <v>26001</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>49862</v>
+        <v>50027</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1131052266375716</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0795813208972008</v>
+        <v>0.07988727479464611</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1531973675521473</v>
+        <v>0.153703980270205</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>92</v>
@@ -4536,19 +4536,19 @@
         <v>93564</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>76356</v>
+        <v>76706</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>111036</v>
+        <v>114588</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1291472517122702</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1053946234781029</v>
+        <v>0.1058786666063677</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1532638407867742</v>
+        <v>0.1581675521953467</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>100698</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>84425</v>
+        <v>83254</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>119508</v>
+        <v>117351</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2523755746802014</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2115906802612612</v>
+        <v>0.2086560583405075</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2995185947258217</v>
+        <v>0.2941121103131257</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>76</v>
@@ -4586,19 +4586,19 @@
         <v>77958</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>63803</v>
+        <v>63417</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>93038</v>
+        <v>94673</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2395223773443831</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1960300999245175</v>
+        <v>0.1948464841179233</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2858523332844624</v>
+        <v>0.2908780688267271</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>174</v>
@@ -4607,19 +4607,19 @@
         <v>178656</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>156505</v>
+        <v>155287</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>202960</v>
+        <v>202131</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2466012073233694</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2160258177012086</v>
+        <v>0.2143443152167001</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2801473514990673</v>
+        <v>0.2790032893555167</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>93918</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>77023</v>
+        <v>78064</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>110921</v>
+        <v>112366</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2353835238908207</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1930407656798864</v>
+        <v>0.1956493078905924</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2779963449289523</v>
+        <v>0.2816179189048963</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -4657,19 +4657,19 @@
         <v>67835</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53121</v>
+        <v>54201</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82631</v>
+        <v>84931</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2084183804839608</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1632125487492402</v>
+        <v>0.1665280309462712</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2538777234357888</v>
+        <v>0.2609467709165131</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>158</v>
@@ -4678,19 +4678,19 @@
         <v>161753</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>138942</v>
+        <v>140446</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>185292</v>
+        <v>185811</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2232692896039982</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1917825967897981</v>
+        <v>0.1938590849959135</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2557603025081599</v>
+        <v>0.2564769204071133</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>73754</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>59675</v>
+        <v>60216</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>90581</v>
+        <v>91663</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.184847804576298</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1495599852694874</v>
+        <v>0.1509160738916211</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2270185480706945</v>
+        <v>0.2297315512543006</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -4728,19 +4728,19 @@
         <v>58318</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44740</v>
+        <v>45251</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>73732</v>
+        <v>75424</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.179177764903217</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1374615461940335</v>
+        <v>0.1390301266491925</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2265373681060212</v>
+        <v>0.23173550320889</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>125</v>
@@ -4749,19 +4749,19 @@
         <v>132072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>112153</v>
+        <v>112008</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>155138</v>
+        <v>155231</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1823005090555997</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1548062589051819</v>
+        <v>0.1546052705289717</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2141388206617531</v>
+        <v>0.2142664120979498</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>260768</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>231378</v>
+        <v>234069</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>294259</v>
+        <v>292406</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1841143085800278</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1633635579876818</v>
+        <v>0.1652632889524948</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.207760679478223</v>
+        <v>0.2064523322991978</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>205</v>
@@ -4874,19 +4874,19 @@
         <v>212908</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>186133</v>
+        <v>188689</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>239695</v>
+        <v>239129</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2063099571820494</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1803649064681847</v>
+        <v>0.1828411669249095</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.232267063931465</v>
+        <v>0.2317179162516544</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>445</v>
@@ -4895,19 +4895,19 @@
         <v>473676</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>435078</v>
+        <v>437181</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>512933</v>
+        <v>516086</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.193469914361544</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1777047777601246</v>
+        <v>0.1785638422653</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2095040852938656</v>
+        <v>0.2107920078502555</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>220350</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>193673</v>
+        <v>191754</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>246408</v>
+        <v>247748</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1555773088809818</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.136742023140585</v>
+        <v>0.1353874500068369</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.173975379222523</v>
+        <v>0.1749216573664992</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>140</v>
@@ -4945,19 +4945,19 @@
         <v>143558</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>122574</v>
+        <v>121925</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>167763</v>
+        <v>167588</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1391093330498343</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1187755368065582</v>
+        <v>0.118146592025663</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1625635153584207</v>
+        <v>0.1623945528598629</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>347</v>
@@ -4966,19 +4966,19 @@
         <v>363908</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>331821</v>
+        <v>329238</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>401827</v>
+        <v>401275</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1486359532730308</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1355301469314696</v>
+        <v>0.1344751894160243</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1641238731708068</v>
+        <v>0.1638980849834947</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>380823</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>344826</v>
+        <v>351179</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>416542</v>
+        <v>414363</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2688787613293862</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2434629128890997</v>
+        <v>0.2479490444046545</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2940980999097297</v>
+        <v>0.2925594693764108</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>273</v>
@@ -5016,19 +5016,19 @@
         <v>272623</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>245189</v>
+        <v>244816</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>303033</v>
+        <v>301535</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2641739893432472</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2375908396530141</v>
+        <v>0.237228820986335</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2936417720034785</v>
+        <v>0.2921905445784819</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>623</v>
@@ -5037,19 +5037,19 @@
         <v>653445</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>609116</v>
+        <v>614229</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>696535</v>
+        <v>697007</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2668956702837734</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2487895602910521</v>
+        <v>0.2508780300565814</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2844951949600192</v>
+        <v>0.2846881914490128</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>282915</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>251919</v>
+        <v>254064</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>316382</v>
+        <v>314577</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1997512253316293</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1778666756585663</v>
+        <v>0.179381326593483</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2233802871174634</v>
+        <v>0.2221061998285959</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>216</v>
@@ -5087,19 +5087,19 @@
         <v>220765</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>194661</v>
+        <v>197368</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>247592</v>
+        <v>248528</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.213923375572863</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1886280343683746</v>
+        <v>0.1912513334759561</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2399185352645162</v>
+        <v>0.2408263643698511</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>485</v>
@@ -5108,19 +5108,19 @@
         <v>503680</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>465979</v>
+        <v>467051</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>545062</v>
+        <v>550659</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2057248759831956</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.190326098328588</v>
+        <v>0.1907640582939685</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2226270337702161</v>
+        <v>0.2249133695165955</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>271481</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>243214</v>
+        <v>239191</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>304326</v>
+        <v>301991</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1916783958779749</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.171720407248871</v>
+        <v>0.1688799342428678</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2148684981368698</v>
+        <v>0.2132196326608463</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>174</v>
@@ -5158,19 +5158,19 @@
         <v>182128</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>156233</v>
+        <v>156748</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>206192</v>
+        <v>207269</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1764833448520061</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1513908069873649</v>
+        <v>0.1518898539524722</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1998019630113889</v>
+        <v>0.2008459287134901</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>425</v>
@@ -5179,19 +5179,19 @@
         <v>453609</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>415770</v>
+        <v>413133</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>494951</v>
+        <v>494729</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1852735860984563</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1698188033901695</v>
+        <v>0.1687414963657687</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2021595872545456</v>
+        <v>0.2020688230197997</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>23497</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14337</v>
+        <v>13158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36454</v>
+        <v>35917</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2404728877352465</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.146731430111371</v>
+        <v>0.1346673362209397</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3730839278420788</v>
+        <v>0.3675788964708649</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -5544,19 +5544,19 @@
         <v>23680</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16523</v>
+        <v>16504</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33041</v>
+        <v>32222</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3061205537049645</v>
+        <v>0.3061205537049647</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2136047999350311</v>
+        <v>0.2133520396246345</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4271381118158458</v>
+        <v>0.4165573913089256</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -5565,19 +5565,19 @@
         <v>47177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34475</v>
+        <v>33908</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62760</v>
+        <v>60737</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2694799480250492</v>
+        <v>0.2694799480250493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1969259871231381</v>
+        <v>0.1936897294729436</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3584978546315331</v>
+        <v>0.3469407775513327</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>7493</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2757</v>
+        <v>2956</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15503</v>
+        <v>15697</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07668195424824477</v>
+        <v>0.07668195424824478</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02821325262843211</v>
+        <v>0.03025415572200802</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1586590116186825</v>
+        <v>0.1606511276474537</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -5615,19 +5615,19 @@
         <v>6149</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2646</v>
+        <v>3110</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11482</v>
+        <v>11989</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07949374379170462</v>
+        <v>0.07949374379170464</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03421043454954219</v>
+        <v>0.04020675833053811</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1484347079014615</v>
+        <v>0.1549862901814983</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -5636,19 +5636,19 @@
         <v>13642</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7588</v>
+        <v>7757</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21756</v>
+        <v>22714</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07792437083083889</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04334328328284592</v>
+        <v>0.04430982525453826</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1242749734419399</v>
+        <v>0.1297464541048083</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>21819</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13747</v>
+        <v>14182</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32642</v>
+        <v>31954</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2233018979013832</v>
+        <v>0.2233018979013831</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1406940713216837</v>
+        <v>0.1451405992067772</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3340692101789575</v>
+        <v>0.3270267910817123</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -5686,19 +5686,19 @@
         <v>16904</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11448</v>
+        <v>11518</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24170</v>
+        <v>24142</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2185318482351539</v>
+        <v>0.218531848235154</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1479986212311586</v>
+        <v>0.1489017875404536</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3124591826047379</v>
+        <v>0.3120966751807556</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -5707,19 +5707,19 @@
         <v>38723</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29171</v>
+        <v>28562</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>51141</v>
+        <v>49964</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2211942050198497</v>
+        <v>0.2211942050198496</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1666286744316398</v>
+        <v>0.1631517575799956</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2921243823236252</v>
+        <v>0.285404107508055</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>19289</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11977</v>
+        <v>11440</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28418</v>
+        <v>29393</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1974118727227341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1225714573177825</v>
+        <v>0.1170797820732913</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2908391733509483</v>
+        <v>0.3008186717316323</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -5757,19 +5757,19 @@
         <v>16349</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11538</v>
+        <v>10247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23948</v>
+        <v>22744</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2113568850425002</v>
+        <v>0.2113568850425003</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1491585546555661</v>
+        <v>0.1324634029015003</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3095840680515242</v>
+        <v>0.2940300212485828</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -5778,19 +5778,19 @@
         <v>35639</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26125</v>
+        <v>24445</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47982</v>
+        <v>46618</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2035736121711418</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1492291565164193</v>
+        <v>0.1396321026773749</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.274083396308401</v>
+        <v>0.266288769268091</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>25613</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14988</v>
+        <v>14095</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>40667</v>
+        <v>41594</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2621313873923914</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1533867682756167</v>
+        <v>0.1442485399322735</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4161927132729101</v>
+        <v>0.4256813882837623</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -5828,19 +5828,19 @@
         <v>14272</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8703</v>
+        <v>8533</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24781</v>
+        <v>24226</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1844969692256766</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1125055944493594</v>
+        <v>0.1103133911789678</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3203519829184572</v>
+        <v>0.3131805489914439</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -5849,19 +5849,19 @@
         <v>39885</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26687</v>
+        <v>27940</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57541</v>
+        <v>59737</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2278278639531205</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1524431807665202</v>
+        <v>0.1596000584221354</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3286827553331245</v>
+        <v>0.3412299057419672</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>31140</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21424</v>
+        <v>20312</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45120</v>
+        <v>46249</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1832005114149129</v>
+        <v>0.1832005114149128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1260432568982531</v>
+        <v>0.1194994686347856</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2654524304088535</v>
+        <v>0.2720943366875222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -5974,19 +5974,19 @@
         <v>43269</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33014</v>
+        <v>33902</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52382</v>
+        <v>52868</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3473460272588975</v>
+        <v>0.3473460272588976</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2650296381510598</v>
+        <v>0.2721528527714178</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4205040851093371</v>
+        <v>0.4244086869573968</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -5995,19 +5995,19 @@
         <v>74408</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58087</v>
+        <v>58143</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89498</v>
+        <v>88568</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2526212298478481</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1972089351925321</v>
+        <v>0.1974013208957472</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3038538715322613</v>
+        <v>0.3006947585497868</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>17307</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9168</v>
+        <v>9120</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28360</v>
+        <v>28968</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1018223080438524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05393678294527088</v>
+        <v>0.05365250770969613</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1668470424340994</v>
+        <v>0.1704248910755578</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -6045,19 +6045,19 @@
         <v>13846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8710</v>
+        <v>8856</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21570</v>
+        <v>21540</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1111494855302199</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06992376801712642</v>
+        <v>0.07109277251964771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1731594477417253</v>
+        <v>0.1729174890511996</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -6066,19 +6066,19 @@
         <v>31153</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21376</v>
+        <v>22070</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>43212</v>
+        <v>43752</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1057669748154416</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07257283107729708</v>
+        <v>0.07493086987962337</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1467081987858679</v>
+        <v>0.1485429487286345</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>56300</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43129</v>
+        <v>42310</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71001</v>
+        <v>69958</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.331225109949122</v>
+        <v>0.3312251099491219</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2537400740062684</v>
+        <v>0.2489200482213156</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4177116826690489</v>
+        <v>0.4115777983576168</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -6116,19 +6116,19 @@
         <v>35076</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27176</v>
+        <v>27123</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44248</v>
+        <v>44001</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2815806406030667</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2181614828528026</v>
+        <v>0.2177327631943101</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3552096026644465</v>
+        <v>0.3532283548365001</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>95</v>
@@ -6137,19 +6137,19 @@
         <v>91376</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>75346</v>
+        <v>76636</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>109206</v>
+        <v>109394</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3102293811867192</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2558042496354908</v>
+        <v>0.2601865787165811</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3707634014726555</v>
+        <v>0.3713999887177661</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>25473</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16229</v>
+        <v>16149</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36361</v>
+        <v>35975</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1498602890264812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09547891491682758</v>
+        <v>0.09500879988943857</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2139224804608677</v>
+        <v>0.2116482116497703</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -6187,19 +6187,19 @@
         <v>13190</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7684</v>
+        <v>7604</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20707</v>
+        <v>20223</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1058884316820225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06168408644744403</v>
+        <v>0.06104236894755989</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.166225492031009</v>
+        <v>0.1623449687816875</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -6208,19 +6208,19 @@
         <v>38663</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28645</v>
+        <v>28223</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51836</v>
+        <v>50972</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1312636315912319</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09725296472659471</v>
+        <v>0.09581922797715273</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1759873883441166</v>
+        <v>0.173052754635364</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>39756</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28466</v>
+        <v>27758</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52887</v>
+        <v>53363</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2338917815656317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1674720512089589</v>
+        <v>0.1633057654422031</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.311144791746808</v>
+        <v>0.3139447445363152</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -6258,19 +6258,19 @@
         <v>19188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12363</v>
+        <v>12897</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26727</v>
+        <v>26240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1540354149257933</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09924618329262114</v>
+        <v>0.1035318264537581</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2145540905021728</v>
+        <v>0.2106429420013302</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -6279,19 +6279,19 @@
         <v>58944</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>46514</v>
+        <v>46104</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74544</v>
+        <v>74361</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2001187825587592</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1579180129196473</v>
+        <v>0.1565283163153954</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2530820414341987</v>
+        <v>0.2524609813819206</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>25871</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15662</v>
+        <v>15647</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39881</v>
+        <v>38346</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2804793405169986</v>
+        <v>0.2804793405169987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1697996976876244</v>
+        <v>0.1696370502029183</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4323713299779426</v>
+        <v>0.4157387149381897</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -6404,19 +6404,19 @@
         <v>28522</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20169</v>
+        <v>21102</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36819</v>
+        <v>36302</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3136910173524225</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2218156627601006</v>
+        <v>0.2320795091220652</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4049408675516817</v>
+        <v>0.3992544285080639</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -6425,19 +6425,19 @@
         <v>54393</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41705</v>
+        <v>42227</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69280</v>
+        <v>69286</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2969662777062824</v>
+        <v>0.2969662777062823</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2276952552475506</v>
+        <v>0.2305423278536587</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.378245867808068</v>
+        <v>0.3782786851890356</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>19526</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11781</v>
+        <v>10803</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30923</v>
+        <v>30201</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.211696419577403</v>
+        <v>0.2116964195774031</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.127728942335035</v>
+        <v>0.1171271779988513</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3352515429929607</v>
+        <v>0.3274322908142048</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -6475,19 +6475,19 @@
         <v>20003</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13392</v>
+        <v>13098</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28275</v>
+        <v>28042</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2199940284553209</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1472855241549771</v>
+        <v>0.144055980096275</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.310965589389488</v>
+        <v>0.3084035830016008</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -6496,19 +6496,19 @@
         <v>39529</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29134</v>
+        <v>28340</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>52674</v>
+        <v>52770</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2158155177207874</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1590629051550105</v>
+        <v>0.154728760129719</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2875820610574048</v>
+        <v>0.2881034502617411</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>19760</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11985</v>
+        <v>12541</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30220</v>
+        <v>30059</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2142304306859024</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1299327709076593</v>
+        <v>0.1359690783517954</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3276394744852725</v>
+        <v>0.3258920784708791</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -6546,19 +6546,19 @@
         <v>18912</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12589</v>
+        <v>12498</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26236</v>
+        <v>26361</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2079966943347712</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.138451766890764</v>
+        <v>0.1374586598873137</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2885452015028909</v>
+        <v>0.2899252092078487</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>39</v>
@@ -6567,19 +6567,19 @@
         <v>38672</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28645</v>
+        <v>28389</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>50517</v>
+        <v>50691</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2111358799294036</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1563912495699541</v>
+        <v>0.1549958076382132</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2758064346427078</v>
+        <v>0.2767567499343868</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>14416</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7484</v>
+        <v>7914</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23929</v>
+        <v>23801</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1562878770413829</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08113884483458643</v>
+        <v>0.08579980760504501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2594336399391362</v>
+        <v>0.2580445648009052</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -6617,19 +6617,19 @@
         <v>8199</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4376</v>
+        <v>4393</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13812</v>
+        <v>13990</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.09017625199697911</v>
+        <v>0.09017625199697908</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04812479814788315</v>
+        <v>0.04831231841801051</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1519035644987323</v>
+        <v>0.1538678672200496</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -6638,19 +6638,19 @@
         <v>22615</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14196</v>
+        <v>14058</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32952</v>
+        <v>34271</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1234687509554041</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07750414065400676</v>
+        <v>0.07674919154919152</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1799076691405648</v>
+        <v>0.1871097764471409</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>12665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6650</v>
+        <v>7110</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21599</v>
+        <v>21245</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1373059321783129</v>
+        <v>0.137305932178313</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07210183190117017</v>
+        <v>0.07708480411473563</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2341651116319863</v>
+        <v>0.2303270285911173</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -6688,19 +6688,19 @@
         <v>15288</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9927</v>
+        <v>9946</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23560</v>
+        <v>22753</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1681420078605063</v>
+        <v>0.1681420078605062</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1091766929080114</v>
+        <v>0.10938168156694</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2591134551573105</v>
+        <v>0.2502359025670149</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -6709,19 +6709,19 @@
         <v>27953</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19486</v>
+        <v>19122</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38532</v>
+        <v>39095</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1526135736881226</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1063887683630602</v>
+        <v>0.1043982350267094</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2103727086798165</v>
+        <v>0.2134438473074849</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>39377</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29222</v>
+        <v>28254</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50773</v>
+        <v>50786</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3408243735785647</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2529280250181953</v>
+        <v>0.244555629127413</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4394615868582107</v>
+        <v>0.4395768175459441</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -6834,19 +6834,19 @@
         <v>34107</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26241</v>
+        <v>26579</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43512</v>
+        <v>43836</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3608201149278062</v>
+        <v>0.3608201149278061</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2776085048824113</v>
+        <v>0.281185832011173</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4603229457101635</v>
+        <v>0.4637550887770964</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>80</v>
@@ -6855,19 +6855,19 @@
         <v>73483</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>59917</v>
+        <v>59730</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>87224</v>
+        <v>86993</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3498223101475776</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2852399357435798</v>
+        <v>0.2843487290496977</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4152348943864741</v>
+        <v>0.4141380817407598</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>8098</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3560</v>
+        <v>3347</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17183</v>
+        <v>15329</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07008982964342757</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0308092459087596</v>
+        <v>0.02897363851722116</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1487294694472877</v>
+        <v>0.132681064941412</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -6905,19 +6905,19 @@
         <v>12965</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8113</v>
+        <v>7643</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20665</v>
+        <v>20073</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1371634794871244</v>
+        <v>0.1371634794871243</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0858277529302237</v>
+        <v>0.08085924145635305</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2186150935999252</v>
+        <v>0.2123513741850447</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -6926,19 +6926,19 @@
         <v>21063</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14393</v>
+        <v>13842</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31871</v>
+        <v>29898</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1002724788488129</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06851744524987934</v>
+        <v>0.06589504123720137</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1517257458747522</v>
+        <v>0.14233185127342</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>26970</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18916</v>
+        <v>18032</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>37209</v>
+        <v>36841</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2334354555809021</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1637292993581167</v>
+        <v>0.1560749414052889</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.322064006906796</v>
+        <v>0.3188788263078636</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -6976,19 +6976,19 @@
         <v>13105</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7936</v>
+        <v>8503</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20133</v>
+        <v>19350</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1386407660520624</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08395267847167946</v>
+        <v>0.08995247826187343</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2129882439347535</v>
+        <v>0.2047101043200039</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -6997,19 +6997,19 @@
         <v>40075</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>29808</v>
+        <v>29975</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>51647</v>
+        <v>53349</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1907785423631213</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1419025181682412</v>
+        <v>0.1427000580199497</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2458702590743119</v>
+        <v>0.2539725227484091</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>20993</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13704</v>
+        <v>13242</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32297</v>
+        <v>31026</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1817048275284294</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1186143815357946</v>
+        <v>0.1146125856306874</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2795450122636643</v>
+        <v>0.2685463248398252</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -7047,19 +7047,19 @@
         <v>20893</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14617</v>
+        <v>14615</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28502</v>
+        <v>28549</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2210271508220853</v>
+        <v>0.2210271508220852</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1546357377292297</v>
+        <v>0.1546158999351305</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3015329227546678</v>
+        <v>0.3020311524750308</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -7068,19 +7068,19 @@
         <v>41886</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31206</v>
+        <v>32288</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55221</v>
+        <v>55629</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1993995838549289</v>
+        <v>0.1993995838549288</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1485575701448997</v>
+        <v>0.1537098298723422</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2628813529491262</v>
+        <v>0.2648269246588427</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>20097</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12227</v>
+        <v>12884</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29210</v>
+        <v>30495</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1739455136686763</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.105833458822673</v>
+        <v>0.1115194946303915</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2528279639875518</v>
+        <v>0.263948688193284</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -7118,19 +7118,19 @@
         <v>13455</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7777</v>
+        <v>8183</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20515</v>
+        <v>21679</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.142348488710922</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08227077579262322</v>
+        <v>0.08657294318710973</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2170377449861543</v>
+        <v>0.2293465828084136</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -7139,19 +7139,19 @@
         <v>33552</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22866</v>
+        <v>24177</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46277</v>
+        <v>46029</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1597270847855592</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1088534728163294</v>
+        <v>0.1150970753321682</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2203051367499637</v>
+        <v>0.2191241654949135</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>119884</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>99661</v>
+        <v>99287</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>145483</v>
+        <v>144230</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2521441935768168</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2096118124644677</v>
+        <v>0.2088249446180088</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3059864763181243</v>
+        <v>0.3033502681157208</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>154</v>
@@ -7264,19 +7264,19 @@
         <v>129577</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>113136</v>
+        <v>113669</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>147616</v>
+        <v>148262</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3345020436434823</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2920583941059871</v>
+        <v>0.293434238427237</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3810678471551249</v>
+        <v>0.382737030587791</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>244</v>
@@ -7285,19 +7285,19 @@
         <v>249461</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>222561</v>
+        <v>223697</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>279683</v>
+        <v>280141</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2891193241605713</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2579435110449542</v>
+        <v>0.2592598310597578</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3241460180575423</v>
+        <v>0.3246770662531212</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>52424</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>39512</v>
+        <v>37432</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>68705</v>
+        <v>69257</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1102600790221075</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08310265159668288</v>
+        <v>0.07872912958052838</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1445038111902543</v>
+        <v>0.1456636020457389</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>65</v>
@@ -7335,19 +7335,19 @@
         <v>52963</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>42270</v>
+        <v>41983</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>66561</v>
+        <v>68185</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1367243032204613</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1091196700881897</v>
+        <v>0.108377354771574</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1718256967261287</v>
+        <v>0.1760190605933199</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>105</v>
@@ -7356,19 +7356,19 @@
         <v>105387</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>86928</v>
+        <v>85174</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>126936</v>
+        <v>124808</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1221413768551595</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1007480804744925</v>
+        <v>0.09871465267911954</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.147115343875181</v>
+        <v>0.144649970583189</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>124849</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>103090</v>
+        <v>104051</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>145208</v>
+        <v>147007</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2625868553822283</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2168219728088796</v>
+        <v>0.2188434785601929</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3054079749940345</v>
+        <v>0.3091908445799655</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>119</v>
@@ -7406,19 +7406,19 @@
         <v>83998</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>69903</v>
+        <v>69465</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99385</v>
+        <v>99145</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2168392226756567</v>
+        <v>0.2168392226756568</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1804546567216216</v>
+        <v>0.1793223231054578</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2565603112485049</v>
+        <v>0.2559423604974018</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>230</v>
@@ -7427,19 +7427,19 @@
         <v>208846</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>184169</v>
+        <v>182186</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>234303</v>
+        <v>233460</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2420481369497546</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2134470391182265</v>
+        <v>0.2111497895278609</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2715516267510351</v>
+        <v>0.270574306565795</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>80170</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>64334</v>
+        <v>64258</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>99406</v>
+        <v>100126</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1686175968728791</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1353100559868676</v>
+        <v>0.1351503279244858</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.209074395449095</v>
+        <v>0.2105880657551914</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>82</v>
@@ -7477,19 +7477,19 @@
         <v>58632</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>45492</v>
+        <v>46962</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>72393</v>
+        <v>70697</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1513568319363025</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1174373320013953</v>
+        <v>0.1212317495694012</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1868825213642672</v>
+        <v>0.1825028475188277</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>156</v>
@@ -7498,19 +7498,19 @@
         <v>138802</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>117679</v>
+        <v>118873</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>159437</v>
+        <v>160359</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.160868256196929</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1363866858298888</v>
+        <v>0.1377709317792413</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1847835049721611</v>
+        <v>0.1858524265586981</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>98130</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>78056</v>
+        <v>79347</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>120447</v>
+        <v>121475</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2063912751459684</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1641707114155854</v>
+        <v>0.1668860654044162</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2533296512451256</v>
+        <v>0.2554909008292172</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>77</v>
@@ -7548,19 +7548,19 @@
         <v>62204</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>50149</v>
+        <v>50628</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>76303</v>
+        <v>78621</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1605775985240971</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1294580440235064</v>
+        <v>0.1306950431323516</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1969737579401272</v>
+        <v>0.2029591367349985</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>151</v>
@@ -7569,19 +7569,19 @@
         <v>160334</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>135519</v>
+        <v>136543</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>188515</v>
+        <v>189933</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1858229058375856</v>
+        <v>0.1858229058375857</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1570630455001145</v>
+        <v>0.1582497435921551</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2184840079695258</v>
+        <v>0.2201277363028593</v>
       </c>
     </row>
     <row r="33">
